--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf10-Tnfrsf11b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.80992266666667</v>
+        <v>27.295786</v>
       </c>
       <c r="H2">
-        <v>80.429768</v>
+        <v>81.88735800000001</v>
       </c>
       <c r="I2">
-        <v>0.8864931668627436</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="J2">
-        <v>0.8864931668627437</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N2">
         <v>0.247237</v>
@@ -570,16 +570,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q2">
-        <v>2.209468283446222</v>
+        <v>2.249509414427334</v>
       </c>
       <c r="R2">
-        <v>19.885214551016</v>
+        <v>20.245584729846</v>
       </c>
       <c r="S2">
-        <v>0.04190458175523552</v>
+        <v>0.03747970856650421</v>
       </c>
       <c r="T2">
-        <v>0.04190458175523552</v>
+        <v>0.03747970856650421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.80992266666667</v>
+        <v>27.295786</v>
       </c>
       <c r="H3">
-        <v>80.429768</v>
+        <v>81.88735800000001</v>
       </c>
       <c r="I3">
-        <v>0.8864931668627436</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="J3">
-        <v>0.8864931668627437</v>
+        <v>0.7928847908394133</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,16 +632,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q3">
-        <v>44.53192498747733</v>
+        <v>45.33895564486401</v>
       </c>
       <c r="R3">
-        <v>400.787324887296</v>
+        <v>408.050600803776</v>
       </c>
       <c r="S3">
-        <v>0.8445885851075081</v>
+        <v>0.7554050822729091</v>
       </c>
       <c r="T3">
-        <v>0.8445885851075081</v>
+        <v>0.755405082272909</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>3.786555</v>
       </c>
       <c r="I4">
-        <v>0.04173523332119963</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="J4">
-        <v>0.04173523332119964</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N4">
         <v>0.247237</v>
@@ -697,13 +697,13 @@
         <v>0.1040196109483333</v>
       </c>
       <c r="R4">
-        <v>0.936176498535</v>
+        <v>0.9361764985350001</v>
       </c>
       <c r="S4">
-        <v>0.001972826821633948</v>
+        <v>0.001733099972172008</v>
       </c>
       <c r="T4">
-        <v>0.001972826821633948</v>
+        <v>0.001733099972172009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>3.786555</v>
       </c>
       <c r="I5">
-        <v>0.04173523332119963</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="J5">
-        <v>0.04173523332119964</v>
+        <v>0.03666380186764524</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -762,10 +762,10 @@
         <v>18.86867619696</v>
       </c>
       <c r="S5">
-        <v>0.03976240649956569</v>
+        <v>0.03493070189547323</v>
       </c>
       <c r="T5">
-        <v>0.03976240649956569</v>
+        <v>0.03493070189547323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7313983333333334</v>
+        <v>3.215569666666667</v>
       </c>
       <c r="H6">
-        <v>2.194195</v>
+        <v>9.646709</v>
       </c>
       <c r="I6">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="J6">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N6">
         <v>0.247237</v>
@@ -818,16 +818,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q6">
-        <v>0.0602762432461111</v>
+        <v>0.2650025992258889</v>
       </c>
       <c r="R6">
-        <v>0.542486189215</v>
+        <v>2.385023393033</v>
       </c>
       <c r="S6">
-        <v>0.001143193944864158</v>
+        <v>0.004415282783282288</v>
       </c>
       <c r="T6">
-        <v>0.001143193944864158</v>
+        <v>0.004415282783282288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7313983333333334</v>
+        <v>3.215569666666667</v>
       </c>
       <c r="H7">
-        <v>2.194195</v>
+        <v>9.646709</v>
       </c>
       <c r="I7">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="J7">
-        <v>0.02418431536771806</v>
+        <v>0.0934054905978733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,16 +880,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q7">
-        <v>1.214870185226667</v>
+        <v>5.341138390005334</v>
       </c>
       <c r="R7">
-        <v>10.93383166704</v>
+        <v>48.070245510048</v>
       </c>
       <c r="S7">
-        <v>0.0230411214228539</v>
+        <v>0.08899020781459102</v>
       </c>
       <c r="T7">
-        <v>0.0230411214228539</v>
+        <v>0.08899020781459101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08186399999999999</v>
+        <v>0.2487956666666666</v>
       </c>
       <c r="H8">
-        <v>0.245592</v>
+        <v>0.7463869999999999</v>
       </c>
       <c r="I8">
-        <v>0.002706903616036228</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="J8">
-        <v>0.002706903616036229</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N8">
         <v>0.247237</v>
@@ -942,16 +942,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q8">
-        <v>0.006746603255999998</v>
+        <v>0.02050383141322222</v>
       </c>
       <c r="R8">
-        <v>0.06071942930399999</v>
+        <v>0.184534482719</v>
       </c>
       <c r="S8">
-        <v>0.0001279554858647833</v>
+        <v>0.0003416200976691343</v>
       </c>
       <c r="T8">
-        <v>0.0001279554858647833</v>
+        <v>0.0003416200976691343</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08186399999999999</v>
+        <v>0.2487956666666666</v>
       </c>
       <c r="H9">
-        <v>0.245592</v>
+        <v>0.7463869999999999</v>
       </c>
       <c r="I9">
-        <v>0.002706903616036228</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="J9">
-        <v>0.002706903616036229</v>
+        <v>0.007226987349869769</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1004,16 +1004,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q9">
-        <v>0.135978068736</v>
+        <v>0.4132555734293333</v>
       </c>
       <c r="R9">
-        <v>1.223802618624</v>
+        <v>3.719300160864</v>
       </c>
       <c r="S9">
-        <v>0.002578948130171445</v>
+        <v>0.006885367252200635</v>
       </c>
       <c r="T9">
-        <v>0.002578948130171445</v>
+        <v>0.006885367252200634</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.357302666666667</v>
+        <v>2.403580666666667</v>
       </c>
       <c r="H10">
-        <v>4.071908</v>
+        <v>7.210742</v>
       </c>
       <c r="I10">
-        <v>0.04488038083230254</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="J10">
-        <v>0.04488038083230255</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.08241233333333332</v>
+        <v>0.08241233333333334</v>
       </c>
       <c r="N10">
         <v>0.247237</v>
@@ -1066,16 +1066,16 @@
         <v>0.04727005612861496</v>
       </c>
       <c r="Q10">
-        <v>0.1118584797995555</v>
+        <v>0.1980846910948889</v>
       </c>
       <c r="R10">
-        <v>1.006726318196</v>
+        <v>1.782762219854</v>
       </c>
       <c r="S10">
-        <v>0.002121498121016556</v>
+        <v>0.003300344708987334</v>
       </c>
       <c r="T10">
-        <v>0.002121498121016556</v>
+        <v>0.003300344708987334</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.357302666666667</v>
+        <v>2.403580666666667</v>
       </c>
       <c r="H11">
-        <v>4.071908</v>
+        <v>7.210742</v>
       </c>
       <c r="I11">
-        <v>0.04488038083230254</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="J11">
-        <v>0.04488038083230255</v>
+        <v>0.06981892934519847</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1128,16 +1128,16 @@
         <v>0.952729943871385</v>
       </c>
       <c r="Q11">
-        <v>2.254512304597333</v>
+        <v>3.992405173269333</v>
       </c>
       <c r="R11">
-        <v>20.290610741376</v>
+        <v>35.931646559424</v>
       </c>
       <c r="S11">
-        <v>0.04275888271128599</v>
+        <v>0.06651858463621114</v>
       </c>
       <c r="T11">
-        <v>0.04275888271128599</v>
+        <v>0.06651858463621113</v>
       </c>
     </row>
   </sheetData>
